--- a/medicine/Psychotrope/Russe_blanc_(boisson)/Russe_blanc_(boisson).xlsx
+++ b/medicine/Psychotrope/Russe_blanc_(boisson)/Russe_blanc_(boisson).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Russe blanc (en russe : Белый Русский) ou White Russian ou Caucasien dans les pays anglophones, est un cocktail dérivé du Black Russian, à base de vodka, de liqueur de café et de crème fraîche, servi avec des glaçons (on the rocks) dans un verre old fashioned.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les deux cocktails Black Russian et White Russian auraient été créés en 1949 par Gustave Tops, barman belge de l'hôtel Métropole de Bruxelles, en l'honneur de Perle Mesta, ambassadrice des États-Unis au Luxembourg[1],[2].
-Le White Russian est dérivé du Black Russian (vodka et liqueur de café) avec un ajout de crème fraîche glacée. Ils sont très populaires en Russie, nommés ainsi pour la vodka glacée (principal ingrédient) et probablement en rapport aux hivers blancs emblématiques de Russie[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deux cocktails Black Russian et White Russian auraient été créés en 1949 par Gustave Tops, barman belge de l'hôtel Métropole de Bruxelles, en l'honneur de Perle Mesta, ambassadrice des États-Unis au Luxembourg,.
+Le White Russian est dérivé du Black Russian (vodka et liqueur de café) avec un ajout de crème fraîche glacée. Ils sont très populaires en Russie, nommés ainsi pour la vodka glacée (principal ingrédient) et probablement en rapport aux hivers blancs emblématiques de Russie. 
 </t>
         </is>
       </c>
@@ -544,14 +558,16 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La recette officielle de l'IBA est de[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La recette officielle de l'IBA est de :
 50 ml de vodka
 20 ml de liqueur de café (Kahlúa ou Tía María)
 Crème fraîche
 Verser les ingrédients dans le verre old fashioned rempli de glaçons (on the rocks). Remuer doucement, puis faire flotter de la crème fraîche sur le dessus et incorporer lentement à la cuillère. 
-Ou secouer la vodka et la crème fraîche (ou lait ou lait concentré sucré) au shaker avec des glaçons[5]. Verser la liqueur de café sur des glaçons (on the rocks) dans un verre old fashioned, puis le mélange de vodka crème fraîche rafraîchie au shaker le long d'une cuillère[6]. Servir éventuellement avec une gousse de vanille (ou quelques gouttes d'extrait de vanille), de la crème chantilly, et quelques grains de café pour le décor[7],[8].
+Ou secouer la vodka et la crème fraîche (ou lait ou lait concentré sucré) au shaker avec des glaçons. Verser la liqueur de café sur des glaçons (on the rocks) dans un verre old fashioned, puis le mélange de vodka crème fraîche rafraîchie au shaker le long d'une cuillère. Servir éventuellement avec une gousse de vanille (ou quelques gouttes d'extrait de vanille), de la crème chantilly, et quelques grains de café pour le décor,.
 </t>
         </is>
       </c>
@@ -580,7 +596,9 @@
           <t>Variantes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il existe suivant les endroits de nombreuses variantes de ce cocktail, dont :
 Black Russian, sans crème fraîche ;
@@ -618,7 +636,9 @@
           <t>Autres variantes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Affogato (sans vodka, avec glace à la vanille)
@@ -656,11 +676,13 @@
           <t>Cinéma, télévision et musique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Dans le film The Big Lebowski de 1998, des frères Coen, le Russe blanc est la boisson favorite du personnage appelé « Dude »[9] . Il le concocte avec de la crème liquide, du lait et même du lait en poudre. Le film contribue à la popularité de ce cocktail[10] et donne naissance dans les pays anglophones à un jeu à boire où il s'agit de regarder le film et de boire un Russe blanc à chaque fois que le « Dude » en boit un[11]. La boisson est également mentionnée dans le film Catwoman de 2004, par le personnage éponyme qui la réclame « sans glace, sans vodka ni Kahlúa », c'est-à-dire exclusivement composée de lait. Le groupe de punk rock français Uncommonmenfrommars intitule une chanson White Russian de leur album Functional Dysfunctionality après avoir découvert la boisson lors d'une tournée en Europe de l'Est.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Dans le film The Big Lebowski de 1998, des frères Coen, le Russe blanc est la boisson favorite du personnage appelé « Dude » . Il le concocte avec de la crème liquide, du lait et même du lait en poudre. Le film contribue à la popularité de ce cocktail et donne naissance dans les pays anglophones à un jeu à boire où il s'agit de regarder le film et de boire un Russe blanc à chaque fois que le « Dude » en boit un. La boisson est également mentionnée dans le film Catwoman de 2004, par le personnage éponyme qui la réclame « sans glace, sans vodka ni Kahlúa », c'est-à-dire exclusivement composée de lait. Le groupe de punk rock français Uncommonmenfrommars intitule une chanson White Russian de leur album Functional Dysfunctionality après avoir découvert la boisson lors d'une tournée en Europe de l'Est.
 1998 : The Big Lebowski, des frères Coen
-2004 : Catwoman, de Pitof, avec Halle Berry[12]
+2004 : Catwoman, de Pitof, avec Halle Berry
 2006 : The IT Crowd, série télévisée britannique
 1987 marillion intitule une de ses chansons white russian sur l album clutching at straws</t>
         </is>
